--- a/service-system/src/main/resources/static/路基弯沉.xlsx
+++ b/service-system/src/main/resources/static/路基弯沉.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC784A-970F-44A0-8D03-715233BC4B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF569A20-5900-40BE-B7C6-2D323284D335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1448" yWindow="630" windowWidth="10590" windowHeight="10688" tabRatio="920" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="4" state="hidden" r:id="rId1"/>
@@ -4962,6 +4962,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4" xfId="1029" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="300" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5008,6 +5011,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="37" fillId="2" borderId="1" xfId="669" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5036,27 +5054,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="669" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="1029" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5086,9 +5089,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4" xfId="1029" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1382">
@@ -6763,23 +6763,23 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="7" width="12.59765625" customWidth="1"/>
-    <col min="8" max="9" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="55"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="50"/>
       <c r="F1" s="50" t="s">
         <v>2</v>
@@ -6812,98 +6812,98 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="32" customWidth="1"/>
-    <col min="2" max="5" width="6.59765625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="33" customWidth="1"/>
-    <col min="8" max="9" width="11.59765625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="32" customWidth="1"/>
+    <col min="2" max="5" width="6.625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="33" customWidth="1"/>
+    <col min="8" max="9" width="11.625" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="62"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="G3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="63"/>
+      <c r="I3" s="64"/>
     </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
-    <row r="5" spans="1:9" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+    <row r="5" spans="1:9" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="35" t="s">
         <v>18</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36"/>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
@@ -6922,7 +6922,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="36"/>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
@@ -6933,7 +6933,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="48"/>
     </row>
-    <row r="8" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
@@ -6944,7 +6944,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="48"/>
     </row>
-    <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="37"/>
       <c r="C9" s="38"/>
@@ -6955,7 +6955,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="48"/>
     </row>
-    <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
@@ -6966,7 +6966,7 @@
       <c r="H10" s="41"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
@@ -6977,7 +6977,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="48"/>
     </row>
-    <row r="12" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
@@ -6988,7 +6988,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
@@ -6999,7 +6999,7 @@
       <c r="H13" s="41"/>
       <c r="I13" s="48"/>
     </row>
-    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
@@ -7010,7 +7010,7 @@
       <c r="H14" s="41"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="38"/>
@@ -7021,7 +7021,7 @@
       <c r="H15" s="41"/>
       <c r="I15" s="48"/>
     </row>
-    <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
@@ -7032,7 +7032,7 @@
       <c r="H16" s="41"/>
       <c r="I16" s="48"/>
     </row>
-    <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
@@ -7043,7 +7043,7 @@
       <c r="H17" s="41"/>
       <c r="I17" s="48"/>
     </row>
-    <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
@@ -7054,7 +7054,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="48"/>
     </row>
-    <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
@@ -7065,7 +7065,7 @@
       <c r="H19" s="41"/>
       <c r="I19" s="48"/>
     </row>
-    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="C20" s="38"/>
@@ -7076,7 +7076,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="48"/>
     </row>
-    <row r="21" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="38"/>
@@ -7087,7 +7087,7 @@
       <c r="H21" s="41"/>
       <c r="I21" s="48"/>
     </row>
-    <row r="22" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="C22" s="38"/>
@@ -7098,7 +7098,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="48"/>
     </row>
-    <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
@@ -7109,7 +7109,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="48"/>
     </row>
-    <row r="24" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="38"/>
@@ -7120,7 +7120,7 @@
       <c r="H24" s="41"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="37"/>
       <c r="C25" s="38"/>
@@ -7131,7 +7131,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="48"/>
     </row>
-    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="37"/>
       <c r="C26" s="38"/>
@@ -7142,7 +7142,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="37"/>
       <c r="C27" s="38"/>
@@ -7153,7 +7153,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
@@ -7181,12 +7181,10 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.39370078740157499" footer="0.59055118110236204"/>
+  <pageMargins left="0.86527777777777803" right="0.59027777777777801" top="0.78680555555555598" bottom="0.82638888888888895" header="0.35416666666666702" footer="0.59027777777777801"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7196,826 +7194,826 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="21360" topLeftCell="X1"/>
-      <selection activeCell="I4" sqref="I4:K4"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="22995" topLeftCell="X1"/>
+      <selection activeCell="L9" sqref="L9"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.46484375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="6.1328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.46484375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.46484375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="5.796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="6.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="13" width="5.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="13.86328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="3"/>
     <col min="18" max="18" width="9" style="2"/>
     <col min="19" max="22" width="9" style="4"/>
     <col min="23" max="256" width="9" style="2"/>
-    <col min="257" max="257" width="9.1328125" style="2" customWidth="1"/>
-    <col min="258" max="258" width="5.46484375" style="2" customWidth="1"/>
-    <col min="259" max="262" width="6.19921875" style="2" customWidth="1"/>
-    <col min="263" max="263" width="5.46484375" style="2" customWidth="1"/>
-    <col min="264" max="264" width="9.19921875" style="2" customWidth="1"/>
-    <col min="265" max="265" width="5.46484375" style="2" customWidth="1"/>
-    <col min="266" max="269" width="6.19921875" style="2" customWidth="1"/>
-    <col min="270" max="270" width="5.46484375" style="2" customWidth="1"/>
+    <col min="257" max="257" width="9.125" style="2" customWidth="1"/>
+    <col min="258" max="258" width="5.5" style="2" customWidth="1"/>
+    <col min="259" max="262" width="6.125" style="2" customWidth="1"/>
+    <col min="263" max="263" width="5.5" style="2" customWidth="1"/>
+    <col min="264" max="264" width="9.125" style="2" customWidth="1"/>
+    <col min="265" max="265" width="5.5" style="2" customWidth="1"/>
+    <col min="266" max="269" width="6.125" style="2" customWidth="1"/>
+    <col min="270" max="270" width="5.5" style="2" customWidth="1"/>
     <col min="271" max="271" width="9" style="2"/>
-    <col min="272" max="272" width="13.86328125" style="2" customWidth="1"/>
+    <col min="272" max="272" width="13.875" style="2" customWidth="1"/>
     <col min="273" max="512" width="9" style="2"/>
-    <col min="513" max="513" width="9.1328125" style="2" customWidth="1"/>
-    <col min="514" max="514" width="5.46484375" style="2" customWidth="1"/>
-    <col min="515" max="518" width="6.19921875" style="2" customWidth="1"/>
-    <col min="519" max="519" width="5.46484375" style="2" customWidth="1"/>
-    <col min="520" max="520" width="9.19921875" style="2" customWidth="1"/>
-    <col min="521" max="521" width="5.46484375" style="2" customWidth="1"/>
-    <col min="522" max="525" width="6.19921875" style="2" customWidth="1"/>
-    <col min="526" max="526" width="5.46484375" style="2" customWidth="1"/>
+    <col min="513" max="513" width="9.125" style="2" customWidth="1"/>
+    <col min="514" max="514" width="5.5" style="2" customWidth="1"/>
+    <col min="515" max="518" width="6.125" style="2" customWidth="1"/>
+    <col min="519" max="519" width="5.5" style="2" customWidth="1"/>
+    <col min="520" max="520" width="9.125" style="2" customWidth="1"/>
+    <col min="521" max="521" width="5.5" style="2" customWidth="1"/>
+    <col min="522" max="525" width="6.125" style="2" customWidth="1"/>
+    <col min="526" max="526" width="5.5" style="2" customWidth="1"/>
     <col min="527" max="527" width="9" style="2"/>
-    <col min="528" max="528" width="13.86328125" style="2" customWidth="1"/>
+    <col min="528" max="528" width="13.875" style="2" customWidth="1"/>
     <col min="529" max="768" width="9" style="2"/>
-    <col min="769" max="769" width="9.1328125" style="2" customWidth="1"/>
-    <col min="770" max="770" width="5.46484375" style="2" customWidth="1"/>
-    <col min="771" max="774" width="6.19921875" style="2" customWidth="1"/>
-    <col min="775" max="775" width="5.46484375" style="2" customWidth="1"/>
-    <col min="776" max="776" width="9.19921875" style="2" customWidth="1"/>
-    <col min="777" max="777" width="5.46484375" style="2" customWidth="1"/>
-    <col min="778" max="781" width="6.19921875" style="2" customWidth="1"/>
-    <col min="782" max="782" width="5.46484375" style="2" customWidth="1"/>
+    <col min="769" max="769" width="9.125" style="2" customWidth="1"/>
+    <col min="770" max="770" width="5.5" style="2" customWidth="1"/>
+    <col min="771" max="774" width="6.125" style="2" customWidth="1"/>
+    <col min="775" max="775" width="5.5" style="2" customWidth="1"/>
+    <col min="776" max="776" width="9.125" style="2" customWidth="1"/>
+    <col min="777" max="777" width="5.5" style="2" customWidth="1"/>
+    <col min="778" max="781" width="6.125" style="2" customWidth="1"/>
+    <col min="782" max="782" width="5.5" style="2" customWidth="1"/>
     <col min="783" max="783" width="9" style="2"/>
-    <col min="784" max="784" width="13.86328125" style="2" customWidth="1"/>
+    <col min="784" max="784" width="13.875" style="2" customWidth="1"/>
     <col min="785" max="1024" width="9" style="2"/>
-    <col min="1025" max="1025" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1026" max="1026" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1027" max="1030" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1031" max="1031" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1032" max="1032" width="9.19921875" style="2" customWidth="1"/>
-    <col min="1033" max="1033" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1034" max="1037" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1038" max="1038" width="5.46484375" style="2" customWidth="1"/>
+    <col min="1025" max="1025" width="9.125" style="2" customWidth="1"/>
+    <col min="1026" max="1026" width="5.5" style="2" customWidth="1"/>
+    <col min="1027" max="1030" width="6.125" style="2" customWidth="1"/>
+    <col min="1031" max="1031" width="5.5" style="2" customWidth="1"/>
+    <col min="1032" max="1032" width="9.125" style="2" customWidth="1"/>
+    <col min="1033" max="1033" width="5.5" style="2" customWidth="1"/>
+    <col min="1034" max="1037" width="6.125" style="2" customWidth="1"/>
+    <col min="1038" max="1038" width="5.5" style="2" customWidth="1"/>
     <col min="1039" max="1039" width="9" style="2"/>
-    <col min="1040" max="1040" width="13.86328125" style="2" customWidth="1"/>
+    <col min="1040" max="1040" width="13.875" style="2" customWidth="1"/>
     <col min="1041" max="1280" width="9" style="2"/>
-    <col min="1281" max="1281" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1282" max="1282" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1283" max="1286" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1287" max="1287" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1288" max="1288" width="9.19921875" style="2" customWidth="1"/>
-    <col min="1289" max="1289" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1290" max="1293" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1294" max="1294" width="5.46484375" style="2" customWidth="1"/>
+    <col min="1281" max="1281" width="9.125" style="2" customWidth="1"/>
+    <col min="1282" max="1282" width="5.5" style="2" customWidth="1"/>
+    <col min="1283" max="1286" width="6.125" style="2" customWidth="1"/>
+    <col min="1287" max="1287" width="5.5" style="2" customWidth="1"/>
+    <col min="1288" max="1288" width="9.125" style="2" customWidth="1"/>
+    <col min="1289" max="1289" width="5.5" style="2" customWidth="1"/>
+    <col min="1290" max="1293" width="6.125" style="2" customWidth="1"/>
+    <col min="1294" max="1294" width="5.5" style="2" customWidth="1"/>
     <col min="1295" max="1295" width="9" style="2"/>
-    <col min="1296" max="1296" width="13.86328125" style="2" customWidth="1"/>
+    <col min="1296" max="1296" width="13.875" style="2" customWidth="1"/>
     <col min="1297" max="1536" width="9" style="2"/>
-    <col min="1537" max="1537" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1538" max="1538" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1539" max="1542" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1543" max="1543" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1544" max="1544" width="9.19921875" style="2" customWidth="1"/>
-    <col min="1545" max="1545" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1546" max="1549" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1550" max="1550" width="5.46484375" style="2" customWidth="1"/>
+    <col min="1537" max="1537" width="9.125" style="2" customWidth="1"/>
+    <col min="1538" max="1538" width="5.5" style="2" customWidth="1"/>
+    <col min="1539" max="1542" width="6.125" style="2" customWidth="1"/>
+    <col min="1543" max="1543" width="5.5" style="2" customWidth="1"/>
+    <col min="1544" max="1544" width="9.125" style="2" customWidth="1"/>
+    <col min="1545" max="1545" width="5.5" style="2" customWidth="1"/>
+    <col min="1546" max="1549" width="6.125" style="2" customWidth="1"/>
+    <col min="1550" max="1550" width="5.5" style="2" customWidth="1"/>
     <col min="1551" max="1551" width="9" style="2"/>
-    <col min="1552" max="1552" width="13.86328125" style="2" customWidth="1"/>
+    <col min="1552" max="1552" width="13.875" style="2" customWidth="1"/>
     <col min="1553" max="1792" width="9" style="2"/>
-    <col min="1793" max="1793" width="9.1328125" style="2" customWidth="1"/>
-    <col min="1794" max="1794" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1795" max="1798" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1799" max="1799" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1800" max="1800" width="9.19921875" style="2" customWidth="1"/>
-    <col min="1801" max="1801" width="5.46484375" style="2" customWidth="1"/>
-    <col min="1802" max="1805" width="6.19921875" style="2" customWidth="1"/>
-    <col min="1806" max="1806" width="5.46484375" style="2" customWidth="1"/>
+    <col min="1793" max="1793" width="9.125" style="2" customWidth="1"/>
+    <col min="1794" max="1794" width="5.5" style="2" customWidth="1"/>
+    <col min="1795" max="1798" width="6.125" style="2" customWidth="1"/>
+    <col min="1799" max="1799" width="5.5" style="2" customWidth="1"/>
+    <col min="1800" max="1800" width="9.125" style="2" customWidth="1"/>
+    <col min="1801" max="1801" width="5.5" style="2" customWidth="1"/>
+    <col min="1802" max="1805" width="6.125" style="2" customWidth="1"/>
+    <col min="1806" max="1806" width="5.5" style="2" customWidth="1"/>
     <col min="1807" max="1807" width="9" style="2"/>
-    <col min="1808" max="1808" width="13.86328125" style="2" customWidth="1"/>
+    <col min="1808" max="1808" width="13.875" style="2" customWidth="1"/>
     <col min="1809" max="2048" width="9" style="2"/>
-    <col min="2049" max="2049" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2050" max="2050" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2051" max="2054" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2055" max="2055" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2056" max="2056" width="9.19921875" style="2" customWidth="1"/>
-    <col min="2057" max="2057" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2058" max="2061" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2062" max="2062" width="5.46484375" style="2" customWidth="1"/>
+    <col min="2049" max="2049" width="9.125" style="2" customWidth="1"/>
+    <col min="2050" max="2050" width="5.5" style="2" customWidth="1"/>
+    <col min="2051" max="2054" width="6.125" style="2" customWidth="1"/>
+    <col min="2055" max="2055" width="5.5" style="2" customWidth="1"/>
+    <col min="2056" max="2056" width="9.125" style="2" customWidth="1"/>
+    <col min="2057" max="2057" width="5.5" style="2" customWidth="1"/>
+    <col min="2058" max="2061" width="6.125" style="2" customWidth="1"/>
+    <col min="2062" max="2062" width="5.5" style="2" customWidth="1"/>
     <col min="2063" max="2063" width="9" style="2"/>
-    <col min="2064" max="2064" width="13.86328125" style="2" customWidth="1"/>
+    <col min="2064" max="2064" width="13.875" style="2" customWidth="1"/>
     <col min="2065" max="2304" width="9" style="2"/>
-    <col min="2305" max="2305" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2306" max="2306" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2307" max="2310" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2311" max="2311" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2312" max="2312" width="9.19921875" style="2" customWidth="1"/>
-    <col min="2313" max="2313" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2314" max="2317" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2318" max="2318" width="5.46484375" style="2" customWidth="1"/>
+    <col min="2305" max="2305" width="9.125" style="2" customWidth="1"/>
+    <col min="2306" max="2306" width="5.5" style="2" customWidth="1"/>
+    <col min="2307" max="2310" width="6.125" style="2" customWidth="1"/>
+    <col min="2311" max="2311" width="5.5" style="2" customWidth="1"/>
+    <col min="2312" max="2312" width="9.125" style="2" customWidth="1"/>
+    <col min="2313" max="2313" width="5.5" style="2" customWidth="1"/>
+    <col min="2314" max="2317" width="6.125" style="2" customWidth="1"/>
+    <col min="2318" max="2318" width="5.5" style="2" customWidth="1"/>
     <col min="2319" max="2319" width="9" style="2"/>
-    <col min="2320" max="2320" width="13.86328125" style="2" customWidth="1"/>
+    <col min="2320" max="2320" width="13.875" style="2" customWidth="1"/>
     <col min="2321" max="2560" width="9" style="2"/>
-    <col min="2561" max="2561" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2562" max="2562" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2563" max="2566" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2567" max="2567" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2568" max="2568" width="9.19921875" style="2" customWidth="1"/>
-    <col min="2569" max="2569" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2570" max="2573" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2574" max="2574" width="5.46484375" style="2" customWidth="1"/>
+    <col min="2561" max="2561" width="9.125" style="2" customWidth="1"/>
+    <col min="2562" max="2562" width="5.5" style="2" customWidth="1"/>
+    <col min="2563" max="2566" width="6.125" style="2" customWidth="1"/>
+    <col min="2567" max="2567" width="5.5" style="2" customWidth="1"/>
+    <col min="2568" max="2568" width="9.125" style="2" customWidth="1"/>
+    <col min="2569" max="2569" width="5.5" style="2" customWidth="1"/>
+    <col min="2570" max="2573" width="6.125" style="2" customWidth="1"/>
+    <col min="2574" max="2574" width="5.5" style="2" customWidth="1"/>
     <col min="2575" max="2575" width="9" style="2"/>
-    <col min="2576" max="2576" width="13.86328125" style="2" customWidth="1"/>
+    <col min="2576" max="2576" width="13.875" style="2" customWidth="1"/>
     <col min="2577" max="2816" width="9" style="2"/>
-    <col min="2817" max="2817" width="9.1328125" style="2" customWidth="1"/>
-    <col min="2818" max="2818" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2819" max="2822" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2823" max="2823" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2824" max="2824" width="9.19921875" style="2" customWidth="1"/>
-    <col min="2825" max="2825" width="5.46484375" style="2" customWidth="1"/>
-    <col min="2826" max="2829" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2830" max="2830" width="5.46484375" style="2" customWidth="1"/>
+    <col min="2817" max="2817" width="9.125" style="2" customWidth="1"/>
+    <col min="2818" max="2818" width="5.5" style="2" customWidth="1"/>
+    <col min="2819" max="2822" width="6.125" style="2" customWidth="1"/>
+    <col min="2823" max="2823" width="5.5" style="2" customWidth="1"/>
+    <col min="2824" max="2824" width="9.125" style="2" customWidth="1"/>
+    <col min="2825" max="2825" width="5.5" style="2" customWidth="1"/>
+    <col min="2826" max="2829" width="6.125" style="2" customWidth="1"/>
+    <col min="2830" max="2830" width="5.5" style="2" customWidth="1"/>
     <col min="2831" max="2831" width="9" style="2"/>
-    <col min="2832" max="2832" width="13.86328125" style="2" customWidth="1"/>
+    <col min="2832" max="2832" width="13.875" style="2" customWidth="1"/>
     <col min="2833" max="3072" width="9" style="2"/>
-    <col min="3073" max="3073" width="9.1328125" style="2" customWidth="1"/>
-    <col min="3074" max="3074" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3075" max="3078" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3079" max="3079" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3080" max="3080" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3081" max="3081" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3082" max="3085" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3086" max="3086" width="5.46484375" style="2" customWidth="1"/>
+    <col min="3073" max="3073" width="9.125" style="2" customWidth="1"/>
+    <col min="3074" max="3074" width="5.5" style="2" customWidth="1"/>
+    <col min="3075" max="3078" width="6.125" style="2" customWidth="1"/>
+    <col min="3079" max="3079" width="5.5" style="2" customWidth="1"/>
+    <col min="3080" max="3080" width="9.125" style="2" customWidth="1"/>
+    <col min="3081" max="3081" width="5.5" style="2" customWidth="1"/>
+    <col min="3082" max="3085" width="6.125" style="2" customWidth="1"/>
+    <col min="3086" max="3086" width="5.5" style="2" customWidth="1"/>
     <col min="3087" max="3087" width="9" style="2"/>
-    <col min="3088" max="3088" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3088" max="3088" width="13.875" style="2" customWidth="1"/>
     <col min="3089" max="3328" width="9" style="2"/>
-    <col min="3329" max="3329" width="9.1328125" style="2" customWidth="1"/>
-    <col min="3330" max="3330" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3331" max="3334" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3335" max="3335" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3336" max="3336" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3337" max="3337" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3338" max="3341" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3342" max="3342" width="5.46484375" style="2" customWidth="1"/>
+    <col min="3329" max="3329" width="9.125" style="2" customWidth="1"/>
+    <col min="3330" max="3330" width="5.5" style="2" customWidth="1"/>
+    <col min="3331" max="3334" width="6.125" style="2" customWidth="1"/>
+    <col min="3335" max="3335" width="5.5" style="2" customWidth="1"/>
+    <col min="3336" max="3336" width="9.125" style="2" customWidth="1"/>
+    <col min="3337" max="3337" width="5.5" style="2" customWidth="1"/>
+    <col min="3338" max="3341" width="6.125" style="2" customWidth="1"/>
+    <col min="3342" max="3342" width="5.5" style="2" customWidth="1"/>
     <col min="3343" max="3343" width="9" style="2"/>
-    <col min="3344" max="3344" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3344" max="3344" width="13.875" style="2" customWidth="1"/>
     <col min="3345" max="3584" width="9" style="2"/>
-    <col min="3585" max="3585" width="9.1328125" style="2" customWidth="1"/>
-    <col min="3586" max="3586" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3587" max="3590" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3591" max="3591" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3592" max="3592" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3593" max="3593" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3594" max="3597" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3598" max="3598" width="5.46484375" style="2" customWidth="1"/>
+    <col min="3585" max="3585" width="9.125" style="2" customWidth="1"/>
+    <col min="3586" max="3586" width="5.5" style="2" customWidth="1"/>
+    <col min="3587" max="3590" width="6.125" style="2" customWidth="1"/>
+    <col min="3591" max="3591" width="5.5" style="2" customWidth="1"/>
+    <col min="3592" max="3592" width="9.125" style="2" customWidth="1"/>
+    <col min="3593" max="3593" width="5.5" style="2" customWidth="1"/>
+    <col min="3594" max="3597" width="6.125" style="2" customWidth="1"/>
+    <col min="3598" max="3598" width="5.5" style="2" customWidth="1"/>
     <col min="3599" max="3599" width="9" style="2"/>
-    <col min="3600" max="3600" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3600" max="3600" width="13.875" style="2" customWidth="1"/>
     <col min="3601" max="3840" width="9" style="2"/>
-    <col min="3841" max="3841" width="9.1328125" style="2" customWidth="1"/>
-    <col min="3842" max="3842" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3843" max="3846" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3847" max="3847" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3848" max="3848" width="9.19921875" style="2" customWidth="1"/>
-    <col min="3849" max="3849" width="5.46484375" style="2" customWidth="1"/>
-    <col min="3850" max="3853" width="6.19921875" style="2" customWidth="1"/>
-    <col min="3854" max="3854" width="5.46484375" style="2" customWidth="1"/>
+    <col min="3841" max="3841" width="9.125" style="2" customWidth="1"/>
+    <col min="3842" max="3842" width="5.5" style="2" customWidth="1"/>
+    <col min="3843" max="3846" width="6.125" style="2" customWidth="1"/>
+    <col min="3847" max="3847" width="5.5" style="2" customWidth="1"/>
+    <col min="3848" max="3848" width="9.125" style="2" customWidth="1"/>
+    <col min="3849" max="3849" width="5.5" style="2" customWidth="1"/>
+    <col min="3850" max="3853" width="6.125" style="2" customWidth="1"/>
+    <col min="3854" max="3854" width="5.5" style="2" customWidth="1"/>
     <col min="3855" max="3855" width="9" style="2"/>
-    <col min="3856" max="3856" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3856" max="3856" width="13.875" style="2" customWidth="1"/>
     <col min="3857" max="4096" width="9" style="2"/>
-    <col min="4097" max="4097" width="9.1328125" style="2" customWidth="1"/>
-    <col min="4098" max="4098" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4099" max="4102" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4103" max="4103" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4104" max="4104" width="9.19921875" style="2" customWidth="1"/>
-    <col min="4105" max="4105" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4106" max="4109" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4110" max="4110" width="5.46484375" style="2" customWidth="1"/>
+    <col min="4097" max="4097" width="9.125" style="2" customWidth="1"/>
+    <col min="4098" max="4098" width="5.5" style="2" customWidth="1"/>
+    <col min="4099" max="4102" width="6.125" style="2" customWidth="1"/>
+    <col min="4103" max="4103" width="5.5" style="2" customWidth="1"/>
+    <col min="4104" max="4104" width="9.125" style="2" customWidth="1"/>
+    <col min="4105" max="4105" width="5.5" style="2" customWidth="1"/>
+    <col min="4106" max="4109" width="6.125" style="2" customWidth="1"/>
+    <col min="4110" max="4110" width="5.5" style="2" customWidth="1"/>
     <col min="4111" max="4111" width="9" style="2"/>
-    <col min="4112" max="4112" width="13.86328125" style="2" customWidth="1"/>
+    <col min="4112" max="4112" width="13.875" style="2" customWidth="1"/>
     <col min="4113" max="4352" width="9" style="2"/>
-    <col min="4353" max="4353" width="9.1328125" style="2" customWidth="1"/>
-    <col min="4354" max="4354" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4355" max="4358" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4359" max="4359" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4360" max="4360" width="9.19921875" style="2" customWidth="1"/>
-    <col min="4361" max="4361" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4362" max="4365" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4366" max="4366" width="5.46484375" style="2" customWidth="1"/>
+    <col min="4353" max="4353" width="9.125" style="2" customWidth="1"/>
+    <col min="4354" max="4354" width="5.5" style="2" customWidth="1"/>
+    <col min="4355" max="4358" width="6.125" style="2" customWidth="1"/>
+    <col min="4359" max="4359" width="5.5" style="2" customWidth="1"/>
+    <col min="4360" max="4360" width="9.125" style="2" customWidth="1"/>
+    <col min="4361" max="4361" width="5.5" style="2" customWidth="1"/>
+    <col min="4362" max="4365" width="6.125" style="2" customWidth="1"/>
+    <col min="4366" max="4366" width="5.5" style="2" customWidth="1"/>
     <col min="4367" max="4367" width="9" style="2"/>
-    <col min="4368" max="4368" width="13.86328125" style="2" customWidth="1"/>
+    <col min="4368" max="4368" width="13.875" style="2" customWidth="1"/>
     <col min="4369" max="4608" width="9" style="2"/>
-    <col min="4609" max="4609" width="9.1328125" style="2" customWidth="1"/>
-    <col min="4610" max="4610" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4611" max="4614" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4615" max="4615" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4616" max="4616" width="9.19921875" style="2" customWidth="1"/>
-    <col min="4617" max="4617" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4618" max="4621" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4622" max="4622" width="5.46484375" style="2" customWidth="1"/>
+    <col min="4609" max="4609" width="9.125" style="2" customWidth="1"/>
+    <col min="4610" max="4610" width="5.5" style="2" customWidth="1"/>
+    <col min="4611" max="4614" width="6.125" style="2" customWidth="1"/>
+    <col min="4615" max="4615" width="5.5" style="2" customWidth="1"/>
+    <col min="4616" max="4616" width="9.125" style="2" customWidth="1"/>
+    <col min="4617" max="4617" width="5.5" style="2" customWidth="1"/>
+    <col min="4618" max="4621" width="6.125" style="2" customWidth="1"/>
+    <col min="4622" max="4622" width="5.5" style="2" customWidth="1"/>
     <col min="4623" max="4623" width="9" style="2"/>
-    <col min="4624" max="4624" width="13.86328125" style="2" customWidth="1"/>
+    <col min="4624" max="4624" width="13.875" style="2" customWidth="1"/>
     <col min="4625" max="4864" width="9" style="2"/>
-    <col min="4865" max="4865" width="9.1328125" style="2" customWidth="1"/>
-    <col min="4866" max="4866" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4867" max="4870" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4871" max="4871" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4872" max="4872" width="9.19921875" style="2" customWidth="1"/>
-    <col min="4873" max="4873" width="5.46484375" style="2" customWidth="1"/>
-    <col min="4874" max="4877" width="6.19921875" style="2" customWidth="1"/>
-    <col min="4878" max="4878" width="5.46484375" style="2" customWidth="1"/>
+    <col min="4865" max="4865" width="9.125" style="2" customWidth="1"/>
+    <col min="4866" max="4866" width="5.5" style="2" customWidth="1"/>
+    <col min="4867" max="4870" width="6.125" style="2" customWidth="1"/>
+    <col min="4871" max="4871" width="5.5" style="2" customWidth="1"/>
+    <col min="4872" max="4872" width="9.125" style="2" customWidth="1"/>
+    <col min="4873" max="4873" width="5.5" style="2" customWidth="1"/>
+    <col min="4874" max="4877" width="6.125" style="2" customWidth="1"/>
+    <col min="4878" max="4878" width="5.5" style="2" customWidth="1"/>
     <col min="4879" max="4879" width="9" style="2"/>
-    <col min="4880" max="4880" width="13.86328125" style="2" customWidth="1"/>
+    <col min="4880" max="4880" width="13.875" style="2" customWidth="1"/>
     <col min="4881" max="5120" width="9" style="2"/>
-    <col min="5121" max="5121" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5122" max="5122" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5123" max="5126" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5127" max="5127" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5128" max="5128" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5129" max="5129" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5130" max="5133" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5134" max="5134" width="5.46484375" style="2" customWidth="1"/>
+    <col min="5121" max="5121" width="9.125" style="2" customWidth="1"/>
+    <col min="5122" max="5122" width="5.5" style="2" customWidth="1"/>
+    <col min="5123" max="5126" width="6.125" style="2" customWidth="1"/>
+    <col min="5127" max="5127" width="5.5" style="2" customWidth="1"/>
+    <col min="5128" max="5128" width="9.125" style="2" customWidth="1"/>
+    <col min="5129" max="5129" width="5.5" style="2" customWidth="1"/>
+    <col min="5130" max="5133" width="6.125" style="2" customWidth="1"/>
+    <col min="5134" max="5134" width="5.5" style="2" customWidth="1"/>
     <col min="5135" max="5135" width="9" style="2"/>
-    <col min="5136" max="5136" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5136" max="5136" width="13.875" style="2" customWidth="1"/>
     <col min="5137" max="5376" width="9" style="2"/>
-    <col min="5377" max="5377" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5378" max="5378" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5379" max="5382" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5383" max="5383" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5384" max="5384" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5385" max="5385" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5386" max="5389" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5390" max="5390" width="5.46484375" style="2" customWidth="1"/>
+    <col min="5377" max="5377" width="9.125" style="2" customWidth="1"/>
+    <col min="5378" max="5378" width="5.5" style="2" customWidth="1"/>
+    <col min="5379" max="5382" width="6.125" style="2" customWidth="1"/>
+    <col min="5383" max="5383" width="5.5" style="2" customWidth="1"/>
+    <col min="5384" max="5384" width="9.125" style="2" customWidth="1"/>
+    <col min="5385" max="5385" width="5.5" style="2" customWidth="1"/>
+    <col min="5386" max="5389" width="6.125" style="2" customWidth="1"/>
+    <col min="5390" max="5390" width="5.5" style="2" customWidth="1"/>
     <col min="5391" max="5391" width="9" style="2"/>
-    <col min="5392" max="5392" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5392" max="5392" width="13.875" style="2" customWidth="1"/>
     <col min="5393" max="5632" width="9" style="2"/>
-    <col min="5633" max="5633" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5634" max="5634" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5635" max="5638" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5639" max="5639" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5640" max="5640" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5641" max="5641" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5642" max="5645" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5646" max="5646" width="5.46484375" style="2" customWidth="1"/>
+    <col min="5633" max="5633" width="9.125" style="2" customWidth="1"/>
+    <col min="5634" max="5634" width="5.5" style="2" customWidth="1"/>
+    <col min="5635" max="5638" width="6.125" style="2" customWidth="1"/>
+    <col min="5639" max="5639" width="5.5" style="2" customWidth="1"/>
+    <col min="5640" max="5640" width="9.125" style="2" customWidth="1"/>
+    <col min="5641" max="5641" width="5.5" style="2" customWidth="1"/>
+    <col min="5642" max="5645" width="6.125" style="2" customWidth="1"/>
+    <col min="5646" max="5646" width="5.5" style="2" customWidth="1"/>
     <col min="5647" max="5647" width="9" style="2"/>
-    <col min="5648" max="5648" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5648" max="5648" width="13.875" style="2" customWidth="1"/>
     <col min="5649" max="5888" width="9" style="2"/>
-    <col min="5889" max="5889" width="9.1328125" style="2" customWidth="1"/>
-    <col min="5890" max="5890" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5891" max="5894" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5895" max="5895" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5896" max="5896" width="9.19921875" style="2" customWidth="1"/>
-    <col min="5897" max="5897" width="5.46484375" style="2" customWidth="1"/>
-    <col min="5898" max="5901" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5902" max="5902" width="5.46484375" style="2" customWidth="1"/>
+    <col min="5889" max="5889" width="9.125" style="2" customWidth="1"/>
+    <col min="5890" max="5890" width="5.5" style="2" customWidth="1"/>
+    <col min="5891" max="5894" width="6.125" style="2" customWidth="1"/>
+    <col min="5895" max="5895" width="5.5" style="2" customWidth="1"/>
+    <col min="5896" max="5896" width="9.125" style="2" customWidth="1"/>
+    <col min="5897" max="5897" width="5.5" style="2" customWidth="1"/>
+    <col min="5898" max="5901" width="6.125" style="2" customWidth="1"/>
+    <col min="5902" max="5902" width="5.5" style="2" customWidth="1"/>
     <col min="5903" max="5903" width="9" style="2"/>
-    <col min="5904" max="5904" width="13.86328125" style="2" customWidth="1"/>
+    <col min="5904" max="5904" width="13.875" style="2" customWidth="1"/>
     <col min="5905" max="6144" width="9" style="2"/>
-    <col min="6145" max="6145" width="9.1328125" style="2" customWidth="1"/>
-    <col min="6146" max="6146" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6147" max="6150" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6151" max="6151" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6152" max="6152" width="9.19921875" style="2" customWidth="1"/>
-    <col min="6153" max="6153" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6154" max="6157" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6158" max="6158" width="5.46484375" style="2" customWidth="1"/>
+    <col min="6145" max="6145" width="9.125" style="2" customWidth="1"/>
+    <col min="6146" max="6146" width="5.5" style="2" customWidth="1"/>
+    <col min="6147" max="6150" width="6.125" style="2" customWidth="1"/>
+    <col min="6151" max="6151" width="5.5" style="2" customWidth="1"/>
+    <col min="6152" max="6152" width="9.125" style="2" customWidth="1"/>
+    <col min="6153" max="6153" width="5.5" style="2" customWidth="1"/>
+    <col min="6154" max="6157" width="6.125" style="2" customWidth="1"/>
+    <col min="6158" max="6158" width="5.5" style="2" customWidth="1"/>
     <col min="6159" max="6159" width="9" style="2"/>
-    <col min="6160" max="6160" width="13.86328125" style="2" customWidth="1"/>
+    <col min="6160" max="6160" width="13.875" style="2" customWidth="1"/>
     <col min="6161" max="6400" width="9" style="2"/>
-    <col min="6401" max="6401" width="9.1328125" style="2" customWidth="1"/>
-    <col min="6402" max="6402" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6403" max="6406" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6407" max="6407" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6408" max="6408" width="9.19921875" style="2" customWidth="1"/>
-    <col min="6409" max="6409" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6410" max="6413" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6414" max="6414" width="5.46484375" style="2" customWidth="1"/>
+    <col min="6401" max="6401" width="9.125" style="2" customWidth="1"/>
+    <col min="6402" max="6402" width="5.5" style="2" customWidth="1"/>
+    <col min="6403" max="6406" width="6.125" style="2" customWidth="1"/>
+    <col min="6407" max="6407" width="5.5" style="2" customWidth="1"/>
+    <col min="6408" max="6408" width="9.125" style="2" customWidth="1"/>
+    <col min="6409" max="6409" width="5.5" style="2" customWidth="1"/>
+    <col min="6410" max="6413" width="6.125" style="2" customWidth="1"/>
+    <col min="6414" max="6414" width="5.5" style="2" customWidth="1"/>
     <col min="6415" max="6415" width="9" style="2"/>
-    <col min="6416" max="6416" width="13.86328125" style="2" customWidth="1"/>
+    <col min="6416" max="6416" width="13.875" style="2" customWidth="1"/>
     <col min="6417" max="6656" width="9" style="2"/>
-    <col min="6657" max="6657" width="9.1328125" style="2" customWidth="1"/>
-    <col min="6658" max="6658" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6659" max="6662" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6663" max="6663" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6664" max="6664" width="9.19921875" style="2" customWidth="1"/>
-    <col min="6665" max="6665" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6666" max="6669" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6670" max="6670" width="5.46484375" style="2" customWidth="1"/>
+    <col min="6657" max="6657" width="9.125" style="2" customWidth="1"/>
+    <col min="6658" max="6658" width="5.5" style="2" customWidth="1"/>
+    <col min="6659" max="6662" width="6.125" style="2" customWidth="1"/>
+    <col min="6663" max="6663" width="5.5" style="2" customWidth="1"/>
+    <col min="6664" max="6664" width="9.125" style="2" customWidth="1"/>
+    <col min="6665" max="6665" width="5.5" style="2" customWidth="1"/>
+    <col min="6666" max="6669" width="6.125" style="2" customWidth="1"/>
+    <col min="6670" max="6670" width="5.5" style="2" customWidth="1"/>
     <col min="6671" max="6671" width="9" style="2"/>
-    <col min="6672" max="6672" width="13.86328125" style="2" customWidth="1"/>
+    <col min="6672" max="6672" width="13.875" style="2" customWidth="1"/>
     <col min="6673" max="6912" width="9" style="2"/>
-    <col min="6913" max="6913" width="9.1328125" style="2" customWidth="1"/>
-    <col min="6914" max="6914" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6915" max="6918" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6919" max="6919" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6920" max="6920" width="9.19921875" style="2" customWidth="1"/>
-    <col min="6921" max="6921" width="5.46484375" style="2" customWidth="1"/>
-    <col min="6922" max="6925" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6926" max="6926" width="5.46484375" style="2" customWidth="1"/>
+    <col min="6913" max="6913" width="9.125" style="2" customWidth="1"/>
+    <col min="6914" max="6914" width="5.5" style="2" customWidth="1"/>
+    <col min="6915" max="6918" width="6.125" style="2" customWidth="1"/>
+    <col min="6919" max="6919" width="5.5" style="2" customWidth="1"/>
+    <col min="6920" max="6920" width="9.125" style="2" customWidth="1"/>
+    <col min="6921" max="6921" width="5.5" style="2" customWidth="1"/>
+    <col min="6922" max="6925" width="6.125" style="2" customWidth="1"/>
+    <col min="6926" max="6926" width="5.5" style="2" customWidth="1"/>
     <col min="6927" max="6927" width="9" style="2"/>
-    <col min="6928" max="6928" width="13.86328125" style="2" customWidth="1"/>
+    <col min="6928" max="6928" width="13.875" style="2" customWidth="1"/>
     <col min="6929" max="7168" width="9" style="2"/>
-    <col min="7169" max="7169" width="9.1328125" style="2" customWidth="1"/>
-    <col min="7170" max="7170" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7171" max="7174" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7175" max="7175" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7176" max="7176" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7177" max="7177" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7178" max="7181" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7182" max="7182" width="5.46484375" style="2" customWidth="1"/>
+    <col min="7169" max="7169" width="9.125" style="2" customWidth="1"/>
+    <col min="7170" max="7170" width="5.5" style="2" customWidth="1"/>
+    <col min="7171" max="7174" width="6.125" style="2" customWidth="1"/>
+    <col min="7175" max="7175" width="5.5" style="2" customWidth="1"/>
+    <col min="7176" max="7176" width="9.125" style="2" customWidth="1"/>
+    <col min="7177" max="7177" width="5.5" style="2" customWidth="1"/>
+    <col min="7178" max="7181" width="6.125" style="2" customWidth="1"/>
+    <col min="7182" max="7182" width="5.5" style="2" customWidth="1"/>
     <col min="7183" max="7183" width="9" style="2"/>
-    <col min="7184" max="7184" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7184" max="7184" width="13.875" style="2" customWidth="1"/>
     <col min="7185" max="7424" width="9" style="2"/>
-    <col min="7425" max="7425" width="9.1328125" style="2" customWidth="1"/>
-    <col min="7426" max="7426" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7427" max="7430" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7431" max="7431" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7432" max="7432" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7433" max="7433" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7434" max="7437" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7438" max="7438" width="5.46484375" style="2" customWidth="1"/>
+    <col min="7425" max="7425" width="9.125" style="2" customWidth="1"/>
+    <col min="7426" max="7426" width="5.5" style="2" customWidth="1"/>
+    <col min="7427" max="7430" width="6.125" style="2" customWidth="1"/>
+    <col min="7431" max="7431" width="5.5" style="2" customWidth="1"/>
+    <col min="7432" max="7432" width="9.125" style="2" customWidth="1"/>
+    <col min="7433" max="7433" width="5.5" style="2" customWidth="1"/>
+    <col min="7434" max="7437" width="6.125" style="2" customWidth="1"/>
+    <col min="7438" max="7438" width="5.5" style="2" customWidth="1"/>
     <col min="7439" max="7439" width="9" style="2"/>
-    <col min="7440" max="7440" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7440" max="7440" width="13.875" style="2" customWidth="1"/>
     <col min="7441" max="7680" width="9" style="2"/>
-    <col min="7681" max="7681" width="9.1328125" style="2" customWidth="1"/>
-    <col min="7682" max="7682" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7683" max="7686" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7687" max="7687" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7688" max="7688" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7689" max="7689" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7690" max="7693" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7694" max="7694" width="5.46484375" style="2" customWidth="1"/>
+    <col min="7681" max="7681" width="9.125" style="2" customWidth="1"/>
+    <col min="7682" max="7682" width="5.5" style="2" customWidth="1"/>
+    <col min="7683" max="7686" width="6.125" style="2" customWidth="1"/>
+    <col min="7687" max="7687" width="5.5" style="2" customWidth="1"/>
+    <col min="7688" max="7688" width="9.125" style="2" customWidth="1"/>
+    <col min="7689" max="7689" width="5.5" style="2" customWidth="1"/>
+    <col min="7690" max="7693" width="6.125" style="2" customWidth="1"/>
+    <col min="7694" max="7694" width="5.5" style="2" customWidth="1"/>
     <col min="7695" max="7695" width="9" style="2"/>
-    <col min="7696" max="7696" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7696" max="7696" width="13.875" style="2" customWidth="1"/>
     <col min="7697" max="7936" width="9" style="2"/>
-    <col min="7937" max="7937" width="9.1328125" style="2" customWidth="1"/>
-    <col min="7938" max="7938" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7939" max="7942" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7943" max="7943" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7944" max="7944" width="9.19921875" style="2" customWidth="1"/>
-    <col min="7945" max="7945" width="5.46484375" style="2" customWidth="1"/>
-    <col min="7946" max="7949" width="6.19921875" style="2" customWidth="1"/>
-    <col min="7950" max="7950" width="5.46484375" style="2" customWidth="1"/>
+    <col min="7937" max="7937" width="9.125" style="2" customWidth="1"/>
+    <col min="7938" max="7938" width="5.5" style="2" customWidth="1"/>
+    <col min="7939" max="7942" width="6.125" style="2" customWidth="1"/>
+    <col min="7943" max="7943" width="5.5" style="2" customWidth="1"/>
+    <col min="7944" max="7944" width="9.125" style="2" customWidth="1"/>
+    <col min="7945" max="7945" width="5.5" style="2" customWidth="1"/>
+    <col min="7946" max="7949" width="6.125" style="2" customWidth="1"/>
+    <col min="7950" max="7950" width="5.5" style="2" customWidth="1"/>
     <col min="7951" max="7951" width="9" style="2"/>
-    <col min="7952" max="7952" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7952" max="7952" width="13.875" style="2" customWidth="1"/>
     <col min="7953" max="8192" width="9" style="2"/>
-    <col min="8193" max="8193" width="9.1328125" style="2" customWidth="1"/>
-    <col min="8194" max="8194" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8195" max="8198" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8199" max="8199" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8200" max="8200" width="9.19921875" style="2" customWidth="1"/>
-    <col min="8201" max="8201" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8202" max="8205" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8206" max="8206" width="5.46484375" style="2" customWidth="1"/>
+    <col min="8193" max="8193" width="9.125" style="2" customWidth="1"/>
+    <col min="8194" max="8194" width="5.5" style="2" customWidth="1"/>
+    <col min="8195" max="8198" width="6.125" style="2" customWidth="1"/>
+    <col min="8199" max="8199" width="5.5" style="2" customWidth="1"/>
+    <col min="8200" max="8200" width="9.125" style="2" customWidth="1"/>
+    <col min="8201" max="8201" width="5.5" style="2" customWidth="1"/>
+    <col min="8202" max="8205" width="6.125" style="2" customWidth="1"/>
+    <col min="8206" max="8206" width="5.5" style="2" customWidth="1"/>
     <col min="8207" max="8207" width="9" style="2"/>
-    <col min="8208" max="8208" width="13.86328125" style="2" customWidth="1"/>
+    <col min="8208" max="8208" width="13.875" style="2" customWidth="1"/>
     <col min="8209" max="8448" width="9" style="2"/>
-    <col min="8449" max="8449" width="9.1328125" style="2" customWidth="1"/>
-    <col min="8450" max="8450" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8451" max="8454" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8455" max="8455" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8456" max="8456" width="9.19921875" style="2" customWidth="1"/>
-    <col min="8457" max="8457" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8458" max="8461" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8462" max="8462" width="5.46484375" style="2" customWidth="1"/>
+    <col min="8449" max="8449" width="9.125" style="2" customWidth="1"/>
+    <col min="8450" max="8450" width="5.5" style="2" customWidth="1"/>
+    <col min="8451" max="8454" width="6.125" style="2" customWidth="1"/>
+    <col min="8455" max="8455" width="5.5" style="2" customWidth="1"/>
+    <col min="8456" max="8456" width="9.125" style="2" customWidth="1"/>
+    <col min="8457" max="8457" width="5.5" style="2" customWidth="1"/>
+    <col min="8458" max="8461" width="6.125" style="2" customWidth="1"/>
+    <col min="8462" max="8462" width="5.5" style="2" customWidth="1"/>
     <col min="8463" max="8463" width="9" style="2"/>
-    <col min="8464" max="8464" width="13.86328125" style="2" customWidth="1"/>
+    <col min="8464" max="8464" width="13.875" style="2" customWidth="1"/>
     <col min="8465" max="8704" width="9" style="2"/>
-    <col min="8705" max="8705" width="9.1328125" style="2" customWidth="1"/>
-    <col min="8706" max="8706" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8707" max="8710" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8711" max="8711" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8712" max="8712" width="9.19921875" style="2" customWidth="1"/>
-    <col min="8713" max="8713" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8714" max="8717" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8718" max="8718" width="5.46484375" style="2" customWidth="1"/>
+    <col min="8705" max="8705" width="9.125" style="2" customWidth="1"/>
+    <col min="8706" max="8706" width="5.5" style="2" customWidth="1"/>
+    <col min="8707" max="8710" width="6.125" style="2" customWidth="1"/>
+    <col min="8711" max="8711" width="5.5" style="2" customWidth="1"/>
+    <col min="8712" max="8712" width="9.125" style="2" customWidth="1"/>
+    <col min="8713" max="8713" width="5.5" style="2" customWidth="1"/>
+    <col min="8714" max="8717" width="6.125" style="2" customWidth="1"/>
+    <col min="8718" max="8718" width="5.5" style="2" customWidth="1"/>
     <col min="8719" max="8719" width="9" style="2"/>
-    <col min="8720" max="8720" width="13.86328125" style="2" customWidth="1"/>
+    <col min="8720" max="8720" width="13.875" style="2" customWidth="1"/>
     <col min="8721" max="8960" width="9" style="2"/>
-    <col min="8961" max="8961" width="9.1328125" style="2" customWidth="1"/>
-    <col min="8962" max="8962" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8963" max="8966" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8967" max="8967" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8968" max="8968" width="9.19921875" style="2" customWidth="1"/>
-    <col min="8969" max="8969" width="5.46484375" style="2" customWidth="1"/>
-    <col min="8970" max="8973" width="6.19921875" style="2" customWidth="1"/>
-    <col min="8974" max="8974" width="5.46484375" style="2" customWidth="1"/>
+    <col min="8961" max="8961" width="9.125" style="2" customWidth="1"/>
+    <col min="8962" max="8962" width="5.5" style="2" customWidth="1"/>
+    <col min="8963" max="8966" width="6.125" style="2" customWidth="1"/>
+    <col min="8967" max="8967" width="5.5" style="2" customWidth="1"/>
+    <col min="8968" max="8968" width="9.125" style="2" customWidth="1"/>
+    <col min="8969" max="8969" width="5.5" style="2" customWidth="1"/>
+    <col min="8970" max="8973" width="6.125" style="2" customWidth="1"/>
+    <col min="8974" max="8974" width="5.5" style="2" customWidth="1"/>
     <col min="8975" max="8975" width="9" style="2"/>
-    <col min="8976" max="8976" width="13.86328125" style="2" customWidth="1"/>
+    <col min="8976" max="8976" width="13.875" style="2" customWidth="1"/>
     <col min="8977" max="9216" width="9" style="2"/>
-    <col min="9217" max="9217" width="9.1328125" style="2" customWidth="1"/>
-    <col min="9218" max="9218" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9219" max="9222" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9223" max="9223" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9224" max="9224" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9225" max="9225" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9226" max="9229" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9230" max="9230" width="5.46484375" style="2" customWidth="1"/>
+    <col min="9217" max="9217" width="9.125" style="2" customWidth="1"/>
+    <col min="9218" max="9218" width="5.5" style="2" customWidth="1"/>
+    <col min="9219" max="9222" width="6.125" style="2" customWidth="1"/>
+    <col min="9223" max="9223" width="5.5" style="2" customWidth="1"/>
+    <col min="9224" max="9224" width="9.125" style="2" customWidth="1"/>
+    <col min="9225" max="9225" width="5.5" style="2" customWidth="1"/>
+    <col min="9226" max="9229" width="6.125" style="2" customWidth="1"/>
+    <col min="9230" max="9230" width="5.5" style="2" customWidth="1"/>
     <col min="9231" max="9231" width="9" style="2"/>
-    <col min="9232" max="9232" width="13.86328125" style="2" customWidth="1"/>
+    <col min="9232" max="9232" width="13.875" style="2" customWidth="1"/>
     <col min="9233" max="9472" width="9" style="2"/>
-    <col min="9473" max="9473" width="9.1328125" style="2" customWidth="1"/>
-    <col min="9474" max="9474" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9475" max="9478" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9479" max="9479" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9480" max="9480" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9481" max="9481" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9482" max="9485" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9486" max="9486" width="5.46484375" style="2" customWidth="1"/>
+    <col min="9473" max="9473" width="9.125" style="2" customWidth="1"/>
+    <col min="9474" max="9474" width="5.5" style="2" customWidth="1"/>
+    <col min="9475" max="9478" width="6.125" style="2" customWidth="1"/>
+    <col min="9479" max="9479" width="5.5" style="2" customWidth="1"/>
+    <col min="9480" max="9480" width="9.125" style="2" customWidth="1"/>
+    <col min="9481" max="9481" width="5.5" style="2" customWidth="1"/>
+    <col min="9482" max="9485" width="6.125" style="2" customWidth="1"/>
+    <col min="9486" max="9486" width="5.5" style="2" customWidth="1"/>
     <col min="9487" max="9487" width="9" style="2"/>
-    <col min="9488" max="9488" width="13.86328125" style="2" customWidth="1"/>
+    <col min="9488" max="9488" width="13.875" style="2" customWidth="1"/>
     <col min="9489" max="9728" width="9" style="2"/>
-    <col min="9729" max="9729" width="9.1328125" style="2" customWidth="1"/>
-    <col min="9730" max="9730" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9731" max="9734" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9735" max="9735" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9736" max="9736" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9737" max="9737" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9738" max="9741" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9742" max="9742" width="5.46484375" style="2" customWidth="1"/>
+    <col min="9729" max="9729" width="9.125" style="2" customWidth="1"/>
+    <col min="9730" max="9730" width="5.5" style="2" customWidth="1"/>
+    <col min="9731" max="9734" width="6.125" style="2" customWidth="1"/>
+    <col min="9735" max="9735" width="5.5" style="2" customWidth="1"/>
+    <col min="9736" max="9736" width="9.125" style="2" customWidth="1"/>
+    <col min="9737" max="9737" width="5.5" style="2" customWidth="1"/>
+    <col min="9738" max="9741" width="6.125" style="2" customWidth="1"/>
+    <col min="9742" max="9742" width="5.5" style="2" customWidth="1"/>
     <col min="9743" max="9743" width="9" style="2"/>
-    <col min="9744" max="9744" width="13.86328125" style="2" customWidth="1"/>
+    <col min="9744" max="9744" width="13.875" style="2" customWidth="1"/>
     <col min="9745" max="9984" width="9" style="2"/>
-    <col min="9985" max="9985" width="9.1328125" style="2" customWidth="1"/>
-    <col min="9986" max="9986" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9987" max="9990" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9991" max="9991" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9992" max="9992" width="9.19921875" style="2" customWidth="1"/>
-    <col min="9993" max="9993" width="5.46484375" style="2" customWidth="1"/>
-    <col min="9994" max="9997" width="6.19921875" style="2" customWidth="1"/>
-    <col min="9998" max="9998" width="5.46484375" style="2" customWidth="1"/>
+    <col min="9985" max="9985" width="9.125" style="2" customWidth="1"/>
+    <col min="9986" max="9986" width="5.5" style="2" customWidth="1"/>
+    <col min="9987" max="9990" width="6.125" style="2" customWidth="1"/>
+    <col min="9991" max="9991" width="5.5" style="2" customWidth="1"/>
+    <col min="9992" max="9992" width="9.125" style="2" customWidth="1"/>
+    <col min="9993" max="9993" width="5.5" style="2" customWidth="1"/>
+    <col min="9994" max="9997" width="6.125" style="2" customWidth="1"/>
+    <col min="9998" max="9998" width="5.5" style="2" customWidth="1"/>
     <col min="9999" max="9999" width="9" style="2"/>
-    <col min="10000" max="10000" width="13.86328125" style="2" customWidth="1"/>
+    <col min="10000" max="10000" width="13.875" style="2" customWidth="1"/>
     <col min="10001" max="10240" width="9" style="2"/>
-    <col min="10241" max="10241" width="9.1328125" style="2" customWidth="1"/>
-    <col min="10242" max="10242" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10243" max="10246" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10247" max="10247" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10248" max="10248" width="9.19921875" style="2" customWidth="1"/>
-    <col min="10249" max="10249" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10250" max="10253" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10254" max="10254" width="5.46484375" style="2" customWidth="1"/>
+    <col min="10241" max="10241" width="9.125" style="2" customWidth="1"/>
+    <col min="10242" max="10242" width="5.5" style="2" customWidth="1"/>
+    <col min="10243" max="10246" width="6.125" style="2" customWidth="1"/>
+    <col min="10247" max="10247" width="5.5" style="2" customWidth="1"/>
+    <col min="10248" max="10248" width="9.125" style="2" customWidth="1"/>
+    <col min="10249" max="10249" width="5.5" style="2" customWidth="1"/>
+    <col min="10250" max="10253" width="6.125" style="2" customWidth="1"/>
+    <col min="10254" max="10254" width="5.5" style="2" customWidth="1"/>
     <col min="10255" max="10255" width="9" style="2"/>
-    <col min="10256" max="10256" width="13.86328125" style="2" customWidth="1"/>
+    <col min="10256" max="10256" width="13.875" style="2" customWidth="1"/>
     <col min="10257" max="10496" width="9" style="2"/>
-    <col min="10497" max="10497" width="9.1328125" style="2" customWidth="1"/>
-    <col min="10498" max="10498" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10499" max="10502" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10503" max="10503" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10504" max="10504" width="9.19921875" style="2" customWidth="1"/>
-    <col min="10505" max="10505" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10506" max="10509" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10510" max="10510" width="5.46484375" style="2" customWidth="1"/>
+    <col min="10497" max="10497" width="9.125" style="2" customWidth="1"/>
+    <col min="10498" max="10498" width="5.5" style="2" customWidth="1"/>
+    <col min="10499" max="10502" width="6.125" style="2" customWidth="1"/>
+    <col min="10503" max="10503" width="5.5" style="2" customWidth="1"/>
+    <col min="10504" max="10504" width="9.125" style="2" customWidth="1"/>
+    <col min="10505" max="10505" width="5.5" style="2" customWidth="1"/>
+    <col min="10506" max="10509" width="6.125" style="2" customWidth="1"/>
+    <col min="10510" max="10510" width="5.5" style="2" customWidth="1"/>
     <col min="10511" max="10511" width="9" style="2"/>
-    <col min="10512" max="10512" width="13.86328125" style="2" customWidth="1"/>
+    <col min="10512" max="10512" width="13.875" style="2" customWidth="1"/>
     <col min="10513" max="10752" width="9" style="2"/>
-    <col min="10753" max="10753" width="9.1328125" style="2" customWidth="1"/>
-    <col min="10754" max="10754" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10755" max="10758" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10759" max="10759" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10760" max="10760" width="9.19921875" style="2" customWidth="1"/>
-    <col min="10761" max="10761" width="5.46484375" style="2" customWidth="1"/>
-    <col min="10762" max="10765" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10766" max="10766" width="5.46484375" style="2" customWidth="1"/>
+    <col min="10753" max="10753" width="9.125" style="2" customWidth="1"/>
+    <col min="10754" max="10754" width="5.5" style="2" customWidth="1"/>
+    <col min="10755" max="10758" width="6.125" style="2" customWidth="1"/>
+    <col min="10759" max="10759" width="5.5" style="2" customWidth="1"/>
+    <col min="10760" max="10760" width="9.125" style="2" customWidth="1"/>
+    <col min="10761" max="10761" width="5.5" style="2" customWidth="1"/>
+    <col min="10762" max="10765" width="6.125" style="2" customWidth="1"/>
+    <col min="10766" max="10766" width="5.5" style="2" customWidth="1"/>
     <col min="10767" max="10767" width="9" style="2"/>
-    <col min="10768" max="10768" width="13.86328125" style="2" customWidth="1"/>
+    <col min="10768" max="10768" width="13.875" style="2" customWidth="1"/>
     <col min="10769" max="11008" width="9" style="2"/>
-    <col min="11009" max="11009" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11010" max="11010" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11011" max="11014" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11015" max="11015" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11016" max="11016" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11017" max="11017" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11018" max="11021" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11022" max="11022" width="5.46484375" style="2" customWidth="1"/>
+    <col min="11009" max="11009" width="9.125" style="2" customWidth="1"/>
+    <col min="11010" max="11010" width="5.5" style="2" customWidth="1"/>
+    <col min="11011" max="11014" width="6.125" style="2" customWidth="1"/>
+    <col min="11015" max="11015" width="5.5" style="2" customWidth="1"/>
+    <col min="11016" max="11016" width="9.125" style="2" customWidth="1"/>
+    <col min="11017" max="11017" width="5.5" style="2" customWidth="1"/>
+    <col min="11018" max="11021" width="6.125" style="2" customWidth="1"/>
+    <col min="11022" max="11022" width="5.5" style="2" customWidth="1"/>
     <col min="11023" max="11023" width="9" style="2"/>
-    <col min="11024" max="11024" width="13.86328125" style="2" customWidth="1"/>
+    <col min="11024" max="11024" width="13.875" style="2" customWidth="1"/>
     <col min="11025" max="11264" width="9" style="2"/>
-    <col min="11265" max="11265" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11266" max="11266" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11267" max="11270" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11271" max="11271" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11272" max="11272" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11273" max="11273" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11274" max="11277" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11278" max="11278" width="5.46484375" style="2" customWidth="1"/>
+    <col min="11265" max="11265" width="9.125" style="2" customWidth="1"/>
+    <col min="11266" max="11266" width="5.5" style="2" customWidth="1"/>
+    <col min="11267" max="11270" width="6.125" style="2" customWidth="1"/>
+    <col min="11271" max="11271" width="5.5" style="2" customWidth="1"/>
+    <col min="11272" max="11272" width="9.125" style="2" customWidth="1"/>
+    <col min="11273" max="11273" width="5.5" style="2" customWidth="1"/>
+    <col min="11274" max="11277" width="6.125" style="2" customWidth="1"/>
+    <col min="11278" max="11278" width="5.5" style="2" customWidth="1"/>
     <col min="11279" max="11279" width="9" style="2"/>
-    <col min="11280" max="11280" width="13.86328125" style="2" customWidth="1"/>
+    <col min="11280" max="11280" width="13.875" style="2" customWidth="1"/>
     <col min="11281" max="11520" width="9" style="2"/>
-    <col min="11521" max="11521" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11522" max="11522" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11523" max="11526" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11527" max="11527" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11528" max="11528" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11529" max="11529" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11530" max="11533" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11534" max="11534" width="5.46484375" style="2" customWidth="1"/>
+    <col min="11521" max="11521" width="9.125" style="2" customWidth="1"/>
+    <col min="11522" max="11522" width="5.5" style="2" customWidth="1"/>
+    <col min="11523" max="11526" width="6.125" style="2" customWidth="1"/>
+    <col min="11527" max="11527" width="5.5" style="2" customWidth="1"/>
+    <col min="11528" max="11528" width="9.125" style="2" customWidth="1"/>
+    <col min="11529" max="11529" width="5.5" style="2" customWidth="1"/>
+    <col min="11530" max="11533" width="6.125" style="2" customWidth="1"/>
+    <col min="11534" max="11534" width="5.5" style="2" customWidth="1"/>
     <col min="11535" max="11535" width="9" style="2"/>
-    <col min="11536" max="11536" width="13.86328125" style="2" customWidth="1"/>
+    <col min="11536" max="11536" width="13.875" style="2" customWidth="1"/>
     <col min="11537" max="11776" width="9" style="2"/>
-    <col min="11777" max="11777" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11778" max="11778" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11779" max="11782" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11783" max="11783" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11784" max="11784" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11785" max="11785" width="5.46484375" style="2" customWidth="1"/>
-    <col min="11786" max="11789" width="6.19921875" style="2" customWidth="1"/>
-    <col min="11790" max="11790" width="5.46484375" style="2" customWidth="1"/>
+    <col min="11777" max="11777" width="9.125" style="2" customWidth="1"/>
+    <col min="11778" max="11778" width="5.5" style="2" customWidth="1"/>
+    <col min="11779" max="11782" width="6.125" style="2" customWidth="1"/>
+    <col min="11783" max="11783" width="5.5" style="2" customWidth="1"/>
+    <col min="11784" max="11784" width="9.125" style="2" customWidth="1"/>
+    <col min="11785" max="11785" width="5.5" style="2" customWidth="1"/>
+    <col min="11786" max="11789" width="6.125" style="2" customWidth="1"/>
+    <col min="11790" max="11790" width="5.5" style="2" customWidth="1"/>
     <col min="11791" max="11791" width="9" style="2"/>
-    <col min="11792" max="11792" width="13.86328125" style="2" customWidth="1"/>
+    <col min="11792" max="11792" width="13.875" style="2" customWidth="1"/>
     <col min="11793" max="12032" width="9" style="2"/>
-    <col min="12033" max="12033" width="9.1328125" style="2" customWidth="1"/>
-    <col min="12034" max="12034" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12035" max="12038" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12039" max="12039" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12040" max="12040" width="9.19921875" style="2" customWidth="1"/>
-    <col min="12041" max="12041" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12042" max="12045" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12046" max="12046" width="5.46484375" style="2" customWidth="1"/>
+    <col min="12033" max="12033" width="9.125" style="2" customWidth="1"/>
+    <col min="12034" max="12034" width="5.5" style="2" customWidth="1"/>
+    <col min="12035" max="12038" width="6.125" style="2" customWidth="1"/>
+    <col min="12039" max="12039" width="5.5" style="2" customWidth="1"/>
+    <col min="12040" max="12040" width="9.125" style="2" customWidth="1"/>
+    <col min="12041" max="12041" width="5.5" style="2" customWidth="1"/>
+    <col min="12042" max="12045" width="6.125" style="2" customWidth="1"/>
+    <col min="12046" max="12046" width="5.5" style="2" customWidth="1"/>
     <col min="12047" max="12047" width="9" style="2"/>
-    <col min="12048" max="12048" width="13.86328125" style="2" customWidth="1"/>
+    <col min="12048" max="12048" width="13.875" style="2" customWidth="1"/>
     <col min="12049" max="12288" width="9" style="2"/>
-    <col min="12289" max="12289" width="9.1328125" style="2" customWidth="1"/>
-    <col min="12290" max="12290" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12291" max="12294" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12295" max="12295" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12296" max="12296" width="9.19921875" style="2" customWidth="1"/>
-    <col min="12297" max="12297" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12298" max="12301" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12302" max="12302" width="5.46484375" style="2" customWidth="1"/>
+    <col min="12289" max="12289" width="9.125" style="2" customWidth="1"/>
+    <col min="12290" max="12290" width="5.5" style="2" customWidth="1"/>
+    <col min="12291" max="12294" width="6.125" style="2" customWidth="1"/>
+    <col min="12295" max="12295" width="5.5" style="2" customWidth="1"/>
+    <col min="12296" max="12296" width="9.125" style="2" customWidth="1"/>
+    <col min="12297" max="12297" width="5.5" style="2" customWidth="1"/>
+    <col min="12298" max="12301" width="6.125" style="2" customWidth="1"/>
+    <col min="12302" max="12302" width="5.5" style="2" customWidth="1"/>
     <col min="12303" max="12303" width="9" style="2"/>
-    <col min="12304" max="12304" width="13.86328125" style="2" customWidth="1"/>
+    <col min="12304" max="12304" width="13.875" style="2" customWidth="1"/>
     <col min="12305" max="12544" width="9" style="2"/>
-    <col min="12545" max="12545" width="9.1328125" style="2" customWidth="1"/>
-    <col min="12546" max="12546" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12547" max="12550" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12551" max="12551" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12552" max="12552" width="9.19921875" style="2" customWidth="1"/>
-    <col min="12553" max="12553" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12554" max="12557" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12558" max="12558" width="5.46484375" style="2" customWidth="1"/>
+    <col min="12545" max="12545" width="9.125" style="2" customWidth="1"/>
+    <col min="12546" max="12546" width="5.5" style="2" customWidth="1"/>
+    <col min="12547" max="12550" width="6.125" style="2" customWidth="1"/>
+    <col min="12551" max="12551" width="5.5" style="2" customWidth="1"/>
+    <col min="12552" max="12552" width="9.125" style="2" customWidth="1"/>
+    <col min="12553" max="12553" width="5.5" style="2" customWidth="1"/>
+    <col min="12554" max="12557" width="6.125" style="2" customWidth="1"/>
+    <col min="12558" max="12558" width="5.5" style="2" customWidth="1"/>
     <col min="12559" max="12559" width="9" style="2"/>
-    <col min="12560" max="12560" width="13.86328125" style="2" customWidth="1"/>
+    <col min="12560" max="12560" width="13.875" style="2" customWidth="1"/>
     <col min="12561" max="12800" width="9" style="2"/>
-    <col min="12801" max="12801" width="9.1328125" style="2" customWidth="1"/>
-    <col min="12802" max="12802" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12803" max="12806" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12807" max="12807" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12808" max="12808" width="9.19921875" style="2" customWidth="1"/>
-    <col min="12809" max="12809" width="5.46484375" style="2" customWidth="1"/>
-    <col min="12810" max="12813" width="6.19921875" style="2" customWidth="1"/>
-    <col min="12814" max="12814" width="5.46484375" style="2" customWidth="1"/>
+    <col min="12801" max="12801" width="9.125" style="2" customWidth="1"/>
+    <col min="12802" max="12802" width="5.5" style="2" customWidth="1"/>
+    <col min="12803" max="12806" width="6.125" style="2" customWidth="1"/>
+    <col min="12807" max="12807" width="5.5" style="2" customWidth="1"/>
+    <col min="12808" max="12808" width="9.125" style="2" customWidth="1"/>
+    <col min="12809" max="12809" width="5.5" style="2" customWidth="1"/>
+    <col min="12810" max="12813" width="6.125" style="2" customWidth="1"/>
+    <col min="12814" max="12814" width="5.5" style="2" customWidth="1"/>
     <col min="12815" max="12815" width="9" style="2"/>
-    <col min="12816" max="12816" width="13.86328125" style="2" customWidth="1"/>
+    <col min="12816" max="12816" width="13.875" style="2" customWidth="1"/>
     <col min="12817" max="13056" width="9" style="2"/>
-    <col min="13057" max="13057" width="9.1328125" style="2" customWidth="1"/>
-    <col min="13058" max="13058" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13059" max="13062" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13063" max="13063" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13064" max="13064" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13065" max="13065" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13066" max="13069" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13070" max="13070" width="5.46484375" style="2" customWidth="1"/>
+    <col min="13057" max="13057" width="9.125" style="2" customWidth="1"/>
+    <col min="13058" max="13058" width="5.5" style="2" customWidth="1"/>
+    <col min="13059" max="13062" width="6.125" style="2" customWidth="1"/>
+    <col min="13063" max="13063" width="5.5" style="2" customWidth="1"/>
+    <col min="13064" max="13064" width="9.125" style="2" customWidth="1"/>
+    <col min="13065" max="13065" width="5.5" style="2" customWidth="1"/>
+    <col min="13066" max="13069" width="6.125" style="2" customWidth="1"/>
+    <col min="13070" max="13070" width="5.5" style="2" customWidth="1"/>
     <col min="13071" max="13071" width="9" style="2"/>
-    <col min="13072" max="13072" width="13.86328125" style="2" customWidth="1"/>
+    <col min="13072" max="13072" width="13.875" style="2" customWidth="1"/>
     <col min="13073" max="13312" width="9" style="2"/>
-    <col min="13313" max="13313" width="9.1328125" style="2" customWidth="1"/>
-    <col min="13314" max="13314" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13315" max="13318" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13319" max="13319" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13320" max="13320" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13321" max="13321" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13322" max="13325" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13326" max="13326" width="5.46484375" style="2" customWidth="1"/>
+    <col min="13313" max="13313" width="9.125" style="2" customWidth="1"/>
+    <col min="13314" max="13314" width="5.5" style="2" customWidth="1"/>
+    <col min="13315" max="13318" width="6.125" style="2" customWidth="1"/>
+    <col min="13319" max="13319" width="5.5" style="2" customWidth="1"/>
+    <col min="13320" max="13320" width="9.125" style="2" customWidth="1"/>
+    <col min="13321" max="13321" width="5.5" style="2" customWidth="1"/>
+    <col min="13322" max="13325" width="6.125" style="2" customWidth="1"/>
+    <col min="13326" max="13326" width="5.5" style="2" customWidth="1"/>
     <col min="13327" max="13327" width="9" style="2"/>
-    <col min="13328" max="13328" width="13.86328125" style="2" customWidth="1"/>
+    <col min="13328" max="13328" width="13.875" style="2" customWidth="1"/>
     <col min="13329" max="13568" width="9" style="2"/>
-    <col min="13569" max="13569" width="9.1328125" style="2" customWidth="1"/>
-    <col min="13570" max="13570" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13571" max="13574" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13575" max="13575" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13576" max="13576" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13577" max="13577" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13578" max="13581" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13582" max="13582" width="5.46484375" style="2" customWidth="1"/>
+    <col min="13569" max="13569" width="9.125" style="2" customWidth="1"/>
+    <col min="13570" max="13570" width="5.5" style="2" customWidth="1"/>
+    <col min="13571" max="13574" width="6.125" style="2" customWidth="1"/>
+    <col min="13575" max="13575" width="5.5" style="2" customWidth="1"/>
+    <col min="13576" max="13576" width="9.125" style="2" customWidth="1"/>
+    <col min="13577" max="13577" width="5.5" style="2" customWidth="1"/>
+    <col min="13578" max="13581" width="6.125" style="2" customWidth="1"/>
+    <col min="13582" max="13582" width="5.5" style="2" customWidth="1"/>
     <col min="13583" max="13583" width="9" style="2"/>
-    <col min="13584" max="13584" width="13.86328125" style="2" customWidth="1"/>
+    <col min="13584" max="13584" width="13.875" style="2" customWidth="1"/>
     <col min="13585" max="13824" width="9" style="2"/>
-    <col min="13825" max="13825" width="9.1328125" style="2" customWidth="1"/>
-    <col min="13826" max="13826" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13827" max="13830" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13831" max="13831" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13832" max="13832" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13833" max="13833" width="5.46484375" style="2" customWidth="1"/>
-    <col min="13834" max="13837" width="6.19921875" style="2" customWidth="1"/>
-    <col min="13838" max="13838" width="5.46484375" style="2" customWidth="1"/>
+    <col min="13825" max="13825" width="9.125" style="2" customWidth="1"/>
+    <col min="13826" max="13826" width="5.5" style="2" customWidth="1"/>
+    <col min="13827" max="13830" width="6.125" style="2" customWidth="1"/>
+    <col min="13831" max="13831" width="5.5" style="2" customWidth="1"/>
+    <col min="13832" max="13832" width="9.125" style="2" customWidth="1"/>
+    <col min="13833" max="13833" width="5.5" style="2" customWidth="1"/>
+    <col min="13834" max="13837" width="6.125" style="2" customWidth="1"/>
+    <col min="13838" max="13838" width="5.5" style="2" customWidth="1"/>
     <col min="13839" max="13839" width="9" style="2"/>
-    <col min="13840" max="13840" width="13.86328125" style="2" customWidth="1"/>
+    <col min="13840" max="13840" width="13.875" style="2" customWidth="1"/>
     <col min="13841" max="14080" width="9" style="2"/>
-    <col min="14081" max="14081" width="9.1328125" style="2" customWidth="1"/>
-    <col min="14082" max="14082" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14083" max="14086" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14087" max="14087" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14088" max="14088" width="9.19921875" style="2" customWidth="1"/>
-    <col min="14089" max="14089" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14090" max="14093" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14094" max="14094" width="5.46484375" style="2" customWidth="1"/>
+    <col min="14081" max="14081" width="9.125" style="2" customWidth="1"/>
+    <col min="14082" max="14082" width="5.5" style="2" customWidth="1"/>
+    <col min="14083" max="14086" width="6.125" style="2" customWidth="1"/>
+    <col min="14087" max="14087" width="5.5" style="2" customWidth="1"/>
+    <col min="14088" max="14088" width="9.125" style="2" customWidth="1"/>
+    <col min="14089" max="14089" width="5.5" style="2" customWidth="1"/>
+    <col min="14090" max="14093" width="6.125" style="2" customWidth="1"/>
+    <col min="14094" max="14094" width="5.5" style="2" customWidth="1"/>
     <col min="14095" max="14095" width="9" style="2"/>
-    <col min="14096" max="14096" width="13.86328125" style="2" customWidth="1"/>
+    <col min="14096" max="14096" width="13.875" style="2" customWidth="1"/>
     <col min="14097" max="14336" width="9" style="2"/>
-    <col min="14337" max="14337" width="9.1328125" style="2" customWidth="1"/>
-    <col min="14338" max="14338" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14339" max="14342" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14343" max="14343" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14344" max="14344" width="9.19921875" style="2" customWidth="1"/>
-    <col min="14345" max="14345" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14346" max="14349" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14350" max="14350" width="5.46484375" style="2" customWidth="1"/>
+    <col min="14337" max="14337" width="9.125" style="2" customWidth="1"/>
+    <col min="14338" max="14338" width="5.5" style="2" customWidth="1"/>
+    <col min="14339" max="14342" width="6.125" style="2" customWidth="1"/>
+    <col min="14343" max="14343" width="5.5" style="2" customWidth="1"/>
+    <col min="14344" max="14344" width="9.125" style="2" customWidth="1"/>
+    <col min="14345" max="14345" width="5.5" style="2" customWidth="1"/>
+    <col min="14346" max="14349" width="6.125" style="2" customWidth="1"/>
+    <col min="14350" max="14350" width="5.5" style="2" customWidth="1"/>
     <col min="14351" max="14351" width="9" style="2"/>
-    <col min="14352" max="14352" width="13.86328125" style="2" customWidth="1"/>
+    <col min="14352" max="14352" width="13.875" style="2" customWidth="1"/>
     <col min="14353" max="14592" width="9" style="2"/>
-    <col min="14593" max="14593" width="9.1328125" style="2" customWidth="1"/>
-    <col min="14594" max="14594" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14595" max="14598" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14599" max="14599" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14600" max="14600" width="9.19921875" style="2" customWidth="1"/>
-    <col min="14601" max="14601" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14602" max="14605" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14606" max="14606" width="5.46484375" style="2" customWidth="1"/>
+    <col min="14593" max="14593" width="9.125" style="2" customWidth="1"/>
+    <col min="14594" max="14594" width="5.5" style="2" customWidth="1"/>
+    <col min="14595" max="14598" width="6.125" style="2" customWidth="1"/>
+    <col min="14599" max="14599" width="5.5" style="2" customWidth="1"/>
+    <col min="14600" max="14600" width="9.125" style="2" customWidth="1"/>
+    <col min="14601" max="14601" width="5.5" style="2" customWidth="1"/>
+    <col min="14602" max="14605" width="6.125" style="2" customWidth="1"/>
+    <col min="14606" max="14606" width="5.5" style="2" customWidth="1"/>
     <col min="14607" max="14607" width="9" style="2"/>
-    <col min="14608" max="14608" width="13.86328125" style="2" customWidth="1"/>
+    <col min="14608" max="14608" width="13.875" style="2" customWidth="1"/>
     <col min="14609" max="14848" width="9" style="2"/>
-    <col min="14849" max="14849" width="9.1328125" style="2" customWidth="1"/>
-    <col min="14850" max="14850" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14851" max="14854" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14855" max="14855" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14856" max="14856" width="9.19921875" style="2" customWidth="1"/>
-    <col min="14857" max="14857" width="5.46484375" style="2" customWidth="1"/>
-    <col min="14858" max="14861" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14862" max="14862" width="5.46484375" style="2" customWidth="1"/>
+    <col min="14849" max="14849" width="9.125" style="2" customWidth="1"/>
+    <col min="14850" max="14850" width="5.5" style="2" customWidth="1"/>
+    <col min="14851" max="14854" width="6.125" style="2" customWidth="1"/>
+    <col min="14855" max="14855" width="5.5" style="2" customWidth="1"/>
+    <col min="14856" max="14856" width="9.125" style="2" customWidth="1"/>
+    <col min="14857" max="14857" width="5.5" style="2" customWidth="1"/>
+    <col min="14858" max="14861" width="6.125" style="2" customWidth="1"/>
+    <col min="14862" max="14862" width="5.5" style="2" customWidth="1"/>
     <col min="14863" max="14863" width="9" style="2"/>
-    <col min="14864" max="14864" width="13.86328125" style="2" customWidth="1"/>
+    <col min="14864" max="14864" width="13.875" style="2" customWidth="1"/>
     <col min="14865" max="15104" width="9" style="2"/>
-    <col min="15105" max="15105" width="9.1328125" style="2" customWidth="1"/>
-    <col min="15106" max="15106" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15107" max="15110" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15111" max="15111" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15112" max="15112" width="9.19921875" style="2" customWidth="1"/>
-    <col min="15113" max="15113" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15114" max="15117" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15118" max="15118" width="5.46484375" style="2" customWidth="1"/>
+    <col min="15105" max="15105" width="9.125" style="2" customWidth="1"/>
+    <col min="15106" max="15106" width="5.5" style="2" customWidth="1"/>
+    <col min="15107" max="15110" width="6.125" style="2" customWidth="1"/>
+    <col min="15111" max="15111" width="5.5" style="2" customWidth="1"/>
+    <col min="15112" max="15112" width="9.125" style="2" customWidth="1"/>
+    <col min="15113" max="15113" width="5.5" style="2" customWidth="1"/>
+    <col min="15114" max="15117" width="6.125" style="2" customWidth="1"/>
+    <col min="15118" max="15118" width="5.5" style="2" customWidth="1"/>
     <col min="15119" max="15119" width="9" style="2"/>
-    <col min="15120" max="15120" width="13.86328125" style="2" customWidth="1"/>
+    <col min="15120" max="15120" width="13.875" style="2" customWidth="1"/>
     <col min="15121" max="15360" width="9" style="2"/>
-    <col min="15361" max="15361" width="9.1328125" style="2" customWidth="1"/>
-    <col min="15362" max="15362" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15363" max="15366" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15367" max="15367" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15368" max="15368" width="9.19921875" style="2" customWidth="1"/>
-    <col min="15369" max="15369" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15370" max="15373" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15374" max="15374" width="5.46484375" style="2" customWidth="1"/>
+    <col min="15361" max="15361" width="9.125" style="2" customWidth="1"/>
+    <col min="15362" max="15362" width="5.5" style="2" customWidth="1"/>
+    <col min="15363" max="15366" width="6.125" style="2" customWidth="1"/>
+    <col min="15367" max="15367" width="5.5" style="2" customWidth="1"/>
+    <col min="15368" max="15368" width="9.125" style="2" customWidth="1"/>
+    <col min="15369" max="15369" width="5.5" style="2" customWidth="1"/>
+    <col min="15370" max="15373" width="6.125" style="2" customWidth="1"/>
+    <col min="15374" max="15374" width="5.5" style="2" customWidth="1"/>
     <col min="15375" max="15375" width="9" style="2"/>
-    <col min="15376" max="15376" width="13.86328125" style="2" customWidth="1"/>
+    <col min="15376" max="15376" width="13.875" style="2" customWidth="1"/>
     <col min="15377" max="15616" width="9" style="2"/>
-    <col min="15617" max="15617" width="9.1328125" style="2" customWidth="1"/>
-    <col min="15618" max="15618" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15619" max="15622" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15623" max="15623" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15624" max="15624" width="9.19921875" style="2" customWidth="1"/>
-    <col min="15625" max="15625" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15626" max="15629" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15630" max="15630" width="5.46484375" style="2" customWidth="1"/>
+    <col min="15617" max="15617" width="9.125" style="2" customWidth="1"/>
+    <col min="15618" max="15618" width="5.5" style="2" customWidth="1"/>
+    <col min="15619" max="15622" width="6.125" style="2" customWidth="1"/>
+    <col min="15623" max="15623" width="5.5" style="2" customWidth="1"/>
+    <col min="15624" max="15624" width="9.125" style="2" customWidth="1"/>
+    <col min="15625" max="15625" width="5.5" style="2" customWidth="1"/>
+    <col min="15626" max="15629" width="6.125" style="2" customWidth="1"/>
+    <col min="15630" max="15630" width="5.5" style="2" customWidth="1"/>
     <col min="15631" max="15631" width="9" style="2"/>
-    <col min="15632" max="15632" width="13.86328125" style="2" customWidth="1"/>
+    <col min="15632" max="15632" width="13.875" style="2" customWidth="1"/>
     <col min="15633" max="15872" width="9" style="2"/>
-    <col min="15873" max="15873" width="9.1328125" style="2" customWidth="1"/>
-    <col min="15874" max="15874" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15875" max="15878" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15879" max="15879" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15880" max="15880" width="9.19921875" style="2" customWidth="1"/>
-    <col min="15881" max="15881" width="5.46484375" style="2" customWidth="1"/>
-    <col min="15882" max="15885" width="6.19921875" style="2" customWidth="1"/>
-    <col min="15886" max="15886" width="5.46484375" style="2" customWidth="1"/>
+    <col min="15873" max="15873" width="9.125" style="2" customWidth="1"/>
+    <col min="15874" max="15874" width="5.5" style="2" customWidth="1"/>
+    <col min="15875" max="15878" width="6.125" style="2" customWidth="1"/>
+    <col min="15879" max="15879" width="5.5" style="2" customWidth="1"/>
+    <col min="15880" max="15880" width="9.125" style="2" customWidth="1"/>
+    <col min="15881" max="15881" width="5.5" style="2" customWidth="1"/>
+    <col min="15882" max="15885" width="6.125" style="2" customWidth="1"/>
+    <col min="15886" max="15886" width="5.5" style="2" customWidth="1"/>
     <col min="15887" max="15887" width="9" style="2"/>
-    <col min="15888" max="15888" width="13.86328125" style="2" customWidth="1"/>
+    <col min="15888" max="15888" width="13.875" style="2" customWidth="1"/>
     <col min="15889" max="16128" width="9" style="2"/>
-    <col min="16129" max="16129" width="9.1328125" style="2" customWidth="1"/>
-    <col min="16130" max="16130" width="5.46484375" style="2" customWidth="1"/>
-    <col min="16131" max="16134" width="6.19921875" style="2" customWidth="1"/>
-    <col min="16135" max="16135" width="5.46484375" style="2" customWidth="1"/>
-    <col min="16136" max="16136" width="9.19921875" style="2" customWidth="1"/>
-    <col min="16137" max="16137" width="5.46484375" style="2" customWidth="1"/>
-    <col min="16138" max="16141" width="6.19921875" style="2" customWidth="1"/>
-    <col min="16142" max="16142" width="5.46484375" style="2" customWidth="1"/>
+    <col min="16129" max="16129" width="9.125" style="2" customWidth="1"/>
+    <col min="16130" max="16130" width="5.5" style="2" customWidth="1"/>
+    <col min="16131" max="16134" width="6.125" style="2" customWidth="1"/>
+    <col min="16135" max="16135" width="5.5" style="2" customWidth="1"/>
+    <col min="16136" max="16136" width="9.125" style="2" customWidth="1"/>
+    <col min="16137" max="16137" width="5.5" style="2" customWidth="1"/>
+    <col min="16138" max="16141" width="6.125" style="2" customWidth="1"/>
+    <col min="16142" max="16142" width="5.5" style="2" customWidth="1"/>
     <col min="16143" max="16143" width="9" style="2"/>
-    <col min="16144" max="16144" width="13.86328125" style="2" customWidth="1"/>
+    <col min="16144" max="16144" width="13.875" style="2" customWidth="1"/>
     <col min="16145" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="71" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
       <c r="O2" s="16"/>
       <c r="P2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="27"/>
     </row>
-    <row r="3" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="71" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
       <c r="O3" s="16"/>
       <c r="P3" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Q3" s="27"/>
     </row>
-    <row r="4" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="68" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
       <c r="O4" s="16"/>
       <c r="P4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="Q4" s="27"/>
     </row>
-    <row r="5" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
@@ -8023,108 +8021,108 @@
       <c r="G5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="68" t="s">
+      <c r="H5" s="54"/>
+      <c r="I5" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
       <c r="O5" s="16"/>
       <c r="P5" s="53" t="s">
         <v>53</v>
       </c>
       <c r="Q5" s="27"/>
     </row>
-    <row r="6" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="69" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
       <c r="O6" s="16"/>
       <c r="P6" s="53" t="s">
         <v>52</v>
       </c>
       <c r="Q6" s="27"/>
     </row>
-    <row r="7" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="75"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="81"/>
       <c r="O7" s="16"/>
       <c r="P7" s="20" t="s">
         <v>34</v>
       </c>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="76" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="71" t="s">
+      <c r="F8" s="82"/>
+      <c r="G8" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="77" t="s">
+      <c r="K8" s="77"/>
+      <c r="L8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="72" t="s">
+      <c r="M8" s="83"/>
+      <c r="N8" s="78" t="s">
         <v>39</v>
       </c>
       <c r="O8" s="16"/>
@@ -8133,9 +8131,9 @@
       </c>
       <c r="Q8" s="27"/>
     </row>
-    <row r="9" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+    <row r="9" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
@@ -8148,9 +8146,9 @@
       <c r="F9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="5" t="s">
         <v>41</v>
       </c>
@@ -8163,14 +8161,14 @@
       <c r="M9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="73"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="16"/>
       <c r="P9" s="22" t="s">
         <v>43</v>
       </c>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -8195,7 +8193,7 @@
       <c r="U10" s="29"/>
       <c r="V10" s="29"/>
     </row>
-    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -8220,7 +8218,7 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
     </row>
-    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -8242,7 +8240,7 @@
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -8264,7 +8262,7 @@
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
     </row>
-    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -8286,7 +8284,7 @@
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
     </row>
-    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -8308,7 +8306,7 @@
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
     </row>
-    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -8330,7 +8328,7 @@
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -8352,7 +8350,7 @@
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
     </row>
-    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -8374,7 +8372,7 @@
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
     </row>
-    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -8396,7 +8394,7 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -8418,7 +8416,7 @@
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
     </row>
-    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -8440,7 +8438,7 @@
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
     </row>
-    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -8461,7 +8459,7 @@
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
     </row>
-    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -8482,7 +8480,7 @@
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
     </row>
-    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -8503,7 +8501,7 @@
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
     </row>
-    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -8524,7 +8522,7 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
     </row>
-    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -8545,7 +8543,7 @@
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
     </row>
-    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -8566,7 +8564,7 @@
       <c r="U27" s="29"/>
       <c r="V27" s="29"/>
     </row>
-    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -8587,7 +8585,7 @@
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
     </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -8608,7 +8606,7 @@
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
     </row>
-    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -8629,7 +8627,7 @@
       <c r="U30" s="29"/>
       <c r="V30" s="29"/>
     </row>
-    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -8650,7 +8648,7 @@
       <c r="U31" s="29"/>
       <c r="V31" s="29"/>
     </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -8671,7 +8669,7 @@
       <c r="U32" s="29"/>
       <c r="V32" s="29"/>
     </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -8692,7 +8690,7 @@
       <c r="U33" s="29"/>
       <c r="V33" s="29"/>
     </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -8713,23 +8711,23 @@
       <c r="U34" s="29"/>
       <c r="V34" s="29"/>
     </row>
-    <row r="35" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="70" t="s">
+    <row r="35" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
       <c r="O35" s="16"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -8780,7 +8778,7 @@
     <mergeCell ref="L6:N6"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F4 E10:F35 F5:F6 L1:M1 L4:M6 L35:M35">
+  <conditionalFormatting sqref="L1:M1 E1:F4 L4:M6 F5:F6 E10:F35 L35:M35">
     <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
@@ -8788,8 +8786,7 @@
   <pageMargins left="0.86527777777777803" right="0.59027777777777801" top="0.78680555555555598" bottom="0.82638888888888895" header="0.35416666666666702" footer="0.59027777777777801"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L              检测：&amp;R复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>